--- a/gouzhiyuan/evidence.xlsx
+++ b/gouzhiyuan/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gouzhiyuan/workspace/GitHub/gon-evidence/gouzhiyuan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C201D66-5D08-7C4C-8C48-D4C1ED7E4795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55981C83-14C4-E341-883B-26CAB90C080F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17780" yWindow="760" windowWidth="16780" windowHeight="21580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17780" yWindow="760" windowWidth="16780" windowHeight="21580" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="40">
   <si>
     <t>TeamName</t>
   </si>
@@ -73,33 +73,15 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
     <t>nft id</t>
   </si>
   <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
     <t>ibc class on chain</t>
   </si>
   <si>
@@ -119,36 +101,79 @@
   </si>
   <si>
     <t>ROCKCOS</t>
-  </si>
-  <si>
-    <t>iaa1mt42zywaq8apu3j0n80c7pk64ewt6efvsd0t6g</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>stars1mt42zywaq8apu3j0n80c7pk64ewt6efv3nc8ng</t>
-  </si>
-  <si>
-    <t>juno1mt42zywaq8apu3j0n80c7pk64ewt6efvnavpl9</t>
-  </si>
-  <si>
-    <t>flix1mt42zywaq8apu3j0n80c7pk64ewt6efvddqltw</t>
   </si>
   <si>
     <t>UptickAddress</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>uptick1mt42zywaq8apu3j0n80c7pk64ewt6efvkfnppg</t>
-  </si>
-  <si>
     <t>blackj#4009</t>
+  </si>
+  <si>
+    <t>A4E1E67349DDA696EEE8C783D6A33474AA426EEF891D4F87D47B33FF956454B8</t>
+  </si>
+  <si>
+    <t>rockcos</t>
+  </si>
+  <si>
+    <t>iaa1y4znzseh5tze7dgqkgzu5ehqu7drqqxngyzk05</t>
+  </si>
+  <si>
+    <t>4306C5151C4DA99CD12DB112DD42C97BD2671C5ACBC162758E04CA100F9C5286</t>
+  </si>
+  <si>
+    <t>r01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stars1y4znzseh5tze7dgqkgzu5ehqu7drqqxnf646x5</t>
+  </si>
+  <si>
+    <t>juno1y4znzseh5tze7dgqkgzu5ehqu7drqqxnt5pu2e</t>
+  </si>
+  <si>
+    <t>uptick1s4kdls309w50957hmwk4ae3l3nhaqhwelua26v</t>
+  </si>
+  <si>
+    <t>omniflix1y4znzseh5tze7dgqkgzu5ehqu7drqqxnqcn76m</t>
+  </si>
+  <si>
+    <t>2B859769BC3A23DBB5AF3BA1B793388E1BDC0B6B621A8A1E6050758B55DBB15F</t>
+  </si>
+  <si>
+    <t>r02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D575DD23902F87B8056BA1172C55CF6CABEFBA1236ADD6F92184249423076BA4</t>
+  </si>
+  <si>
+    <t>stars15afgdkdeqmc99k638tnzqj7k5lh20qfe83j3ts5lu0vg5j9y5j3s8mplgy</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>5A743CCC491CEF0D85F7F0211133D39D80866144648A257FAEBAF60208AB5736</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>ibc/77655988E5217483756AEC626E3D77EB0F7D292A721B14A8CE01E801CD1F0DE1</t>
+  </si>
+  <si>
+    <t>BCC8DD37C2E526CDDB7CA69326A0B24854099F31460DF2672EADF64821757DBD</t>
+  </si>
+  <si>
+    <t>D61AFCEDDC3AAC39B81319644CABA362ED392C28076B113D6D05629A947C66D1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -177,6 +202,12 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF24292F"/>
+      <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -212,13 +243,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -564,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
@@ -593,7 +625,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -607,10 +639,10 @@
     </row>
     <row r="2" spans="1:8" ht="18">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>26</v>
@@ -619,13 +651,13 @@
         <v>27</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -651,15 +683,15 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -685,15 +717,15 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -719,15 +751,15 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -753,15 +785,15 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -787,25 +819,25 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -831,25 +863,25 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -875,25 +907,25 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -919,25 +951,25 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -963,25 +995,25 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1007,25 +1039,25 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1039,7 +1071,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -1056,10 +1090,10 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1085,25 +1119,25 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1129,25 +1163,25 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1172,12 +1206,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1208,12 +1242,12 @@
     </row>
     <row r="2" spans="1:1" ht="14">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1244,12 +1278,12 @@
     </row>
     <row r="2" spans="1:1" ht="14">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1280,12 +1314,12 @@
     </row>
     <row r="2" spans="1:1" ht="14">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1301,9 +1335,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -1319,18 +1355,29 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14">
       <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1344,7 +1391,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -1360,24 +1409,24 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1391,7 +1440,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -1407,24 +1458,24 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1438,7 +1489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -1454,24 +1507,24 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1485,7 +1538,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -1503,24 +1558,24 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14">
       <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1546,15 +1601,15 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1580,17 +1635,17 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>

--- a/gouzhiyuan/evidence.xlsx
+++ b/gouzhiyuan/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gouzhiyuan/workspace/GitHub/gon-evidence/gouzhiyuan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55981C83-14C4-E341-883B-26CAB90C080F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E732D1C-32A8-334D-B746-07483D4BE9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17780" yWindow="760" windowWidth="16780" windowHeight="21580" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17780" yWindow="760" windowWidth="16780" windowHeight="21580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -1071,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
@@ -1490,7 +1490,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
@@ -1538,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>

--- a/gouzhiyuan/evidence.xlsx
+++ b/gouzhiyuan/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gouzhiyuan/workspace/GitHub/gon-evidence/gouzhiyuan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E732D1C-32A8-334D-B746-07483D4BE9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD4C706-3AD2-3A4B-BDFA-1EA9F6DD8AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17780" yWindow="760" windowWidth="16780" windowHeight="21580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5660" yWindow="760" windowWidth="28900" windowHeight="21580" tabRatio="500" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -39,12 +39,25 @@
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="85">
   <si>
     <t>TeamName</t>
   </si>
@@ -77,21 +90,6 @@
   </si>
   <si>
     <t>ChainID</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
   </si>
   <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
@@ -167,6 +165,156 @@
   </si>
   <si>
     <t>D61AFCEDDC3AAC39B81319644CABA362ED392C28076B113D6D05629A947C66D1</t>
+  </si>
+  <si>
+    <t>ibc/DBA6863D16F5BAA609623BE2240D359E0E353ED66034CE202AB39E94327D08EA</t>
+  </si>
+  <si>
+    <t>r04</t>
+  </si>
+  <si>
+    <t>r09</t>
+  </si>
+  <si>
+    <t>ibc/EF0E236ED96A60983587EBD4697C4A43A8A901D83D8CCA2BDD4F1DDC6BCE9662</t>
+  </si>
+  <si>
+    <t>ibc/EFBE1285673E27DEE1CB0510BC67A48428F6A81E8C90DC6F5EEE077B0046E91C</t>
+  </si>
+  <si>
+    <t>r10</t>
+  </si>
+  <si>
+    <t>ibc/40B0D0F341604F38CB3F9E4A7366650C5B7CAE77F75A3FF6796049C1C5F0CDD7</t>
+  </si>
+  <si>
+    <t>r11</t>
+  </si>
+  <si>
+    <t>ibc/80CE87F0EC5DA27E149018D3E666E0C91A9E83CCA73E3E7C6B09FD1A48CE2D13</t>
+  </si>
+  <si>
+    <t>r12</t>
+  </si>
+  <si>
+    <t>C15F2199051A1FB6087A752DAB33E29C04DCCB1824A8EE0DCCA238E3D8A23D8E</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>4AF4697E1D450CF7A3B1E14D17FD0DE7B13C0E6427BC1BFEADAF6374560AD600</t>
+  </si>
+  <si>
+    <t>916723A877ED117AF5057CBA24E285DE31D6971A3D451081D881F7C9B5C9A7B6</t>
+  </si>
+  <si>
+    <t>31B4A05CC10B2B3C4F6F619553B5C2C4A52635A9FD565FCE6B89C8F03E6DE77D</t>
+  </si>
+  <si>
+    <t>E5BEAEF849AE45C528C9AD0CEE20A028C228E49E6B0BDE0921246EEF3216A465</t>
+  </si>
+  <si>
+    <t>4F379978115BBF2512B948C6EF2D9A6835E2C51D97BDDEC127F024B5D81CF625</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>0E9CF27A880CF934E02B91A51A4F2481723E9B24B8A5B0A4FDF4F4D21CF9629A</t>
+  </si>
+  <si>
+    <t>3E2911D4ADFBA2222150E4A59FCE8998EE6221D36E8D316CB38E2C4C2B8D4276</t>
+  </si>
+  <si>
+    <t>892B75B5A716A929795A57541F7BB255571525215F768B9D05F2037A5A9514C4</t>
+  </si>
+  <si>
+    <t>0A338551A35FF40AB5AD6E7264C8BEA72BCD917F83C956560867B931D379BF20</t>
+  </si>
+  <si>
+    <t>CFD66F24B9CC849541852126EAC8CAA4E8675DED7CE4D76410803B7BEA30D1B3</t>
+  </si>
+  <si>
+    <t>F5352FCE4B7F99AE8921CFCAB3C820EF9733A9A633F4045F3B14C9750A96477C</t>
+  </si>
+  <si>
+    <t>1326F0AF26931DB033C83318AC70DACA4F4728936AD5CBDC3D651D49FC512CDC</t>
+  </si>
+  <si>
+    <t>3A5D54063BC133D7A0C961FE8C6478A71DBF76437573EB3B3718A5AE450D6FDB</t>
+  </si>
+  <si>
+    <t>344250C14D8A89902FA99F417C31AAE9ECD465185057D7E1FC76681CBD828B0E</t>
+  </si>
+  <si>
+    <t>8C173AFF4488E563B937B9EB050FE223DF9467361437A337E72CAEE58C2459E9</t>
+  </si>
+  <si>
+    <t>54E1387199A3205F16AB5295EE17B112DF819138CAAFDAEFC05A7571AF37303F</t>
+  </si>
+  <si>
+    <t>141FB27140BE8E7A5AB40E39E15EF641B758FFD7EDA2F594538B38D2BBC466BF</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>46C89CADD48CBE611E16F738A9BE2799F771498F0A3C558BFA16FD7C2F2879FA</t>
+  </si>
+  <si>
+    <t>383DDA45F5792BE93B4ECC935A4D80E0A2891ECE402B26E639BED7584902824E</t>
+  </si>
+  <si>
+    <t>4BF511A3F2E8819AF9FB86BB147E6470AEEC9021F780A14777B005E8B9A9F153</t>
+  </si>
+  <si>
+    <t>A4F92F269D08088628C1BFCD7121AEDEED63B34B3DC0EA07D130A9D955F274E9</t>
+  </si>
+  <si>
+    <t>59DD3DC2744D7A68210A095ABCEDEF6454323A8E30C9389F4999D09E4068262F</t>
+  </si>
+  <si>
+    <t>E1B70857C9DB94CF4329EFE9EE1271604C7FF202CAB3527E606AD39B2BCD6D5A</t>
+  </si>
+  <si>
+    <t>857B6737092E8081B9B6A06CFEBCC9C84206A2309365DFD676C3FFB6BEF17DAE</t>
+  </si>
+  <si>
+    <t>8E45C17F3D28A77E479EB28E6B78615EA50BC1C0A1C73D6F9558A1E668CA895D</t>
+  </si>
+  <si>
+    <t>7011A1A5C35A9AF2D4093FA093CC8DE4F1EE652D0E30A8314A770AB41071A074</t>
+  </si>
+  <si>
+    <t>7D990E07A2348E9A00EB52713DA25F912B29423586B40E8CE0FFAF514D164595</t>
+  </si>
+  <si>
+    <t>82E2DED806415F66B3A1DAF00CE554ADE88C15376B0B407EA51C3F29E1075A60</t>
+  </si>
+  <si>
+    <t>2A340B0B13A00C3C230C72F47F300EDDB34D161E97A974A5901236C08A75AF0A</t>
+  </si>
+  <si>
+    <t>3797EECEE49FB5EC64DB328A822C0059FB07790B341378501631DF88BD174D17</t>
+  </si>
+  <si>
+    <t>1BD4D2E6BF88443AA517E234EF428DCD29FF568A81A3562CF950C7FC2A978B76</t>
+  </si>
+  <si>
+    <t>3F72EE942EB1C91019B2FA0BBC7FEF8150EF0764074EAC7E9DC21E32DAAB1106</t>
+  </si>
+  <si>
+    <t>E53D1D40A2E72115C2CD75646D9F3D8337CA22A35B4D2901DE14EDE321800B3F</t>
+  </si>
+  <si>
+    <t>D3A8A3FD932BB0B55A9545A46A889F6165212C0E4A01B221F2905165E659C027</t>
+  </si>
+  <si>
+    <t>ibc/8FA8889A994875F8CB94D61E5DC11F840DF3AD689EF5F30186EEF2143A9FE7B8</t>
+  </si>
+  <si>
+    <t>r36</t>
   </si>
 </sst>
 </file>
@@ -625,7 +773,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -639,25 +787,25 @@
     </row>
     <row r="2" spans="1:8" ht="18">
       <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +819,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -688,10 +838,10 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -705,7 +855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -722,10 +874,10 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -739,7 +891,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -756,10 +910,10 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -773,7 +927,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -790,10 +946,10 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -805,9 +961,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView zoomScale="396" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -824,20 +982,34 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -851,7 +1023,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="307" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -868,20 +1042,26 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -893,9 +1073,11 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView zoomScale="214" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -912,20 +1094,34 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -937,9 +1133,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView zoomScale="251" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -956,20 +1154,34 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -981,9 +1193,11 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView zoomScale="305" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -1000,20 +1214,34 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1025,9 +1253,11 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -1044,20 +1274,34 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1071,7 +1315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
@@ -1090,10 +1334,10 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1105,9 +1349,11 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -1124,20 +1370,50 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1149,9 +1425,11 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -1168,20 +1446,50 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14">
+      <c r="A6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1206,12 +1514,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1242,12 +1550,12 @@
     </row>
     <row r="2" spans="1:1" ht="14">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1278,12 +1586,12 @@
     </row>
     <row r="2" spans="1:1" ht="14">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1314,12 +1622,12 @@
     </row>
     <row r="2" spans="1:1" ht="14">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1360,24 +1668,24 @@
     </row>
     <row r="2" spans="1:3" ht="14">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1417,16 +1725,16 @@
     </row>
     <row r="2" spans="1:4" ht="18">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1466,16 +1774,16 @@
     </row>
     <row r="2" spans="1:4" ht="18">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1515,16 +1823,16 @@
     </row>
     <row r="2" spans="1:4" ht="18">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1566,16 +1874,16 @@
     </row>
     <row r="2" spans="1:4" ht="14">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1897,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -1606,10 +1916,10 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1623,7 +1933,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -1640,10 +1952,10 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/gouzhiyuan/evidence.xlsx
+++ b/gouzhiyuan/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gouzhiyuan/workspace/GitHub/gon-evidence/gouzhiyuan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD4C706-3AD2-3A4B-BDFA-1EA9F6DD8AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF08203-E5C2-7647-94F8-8C3F8B2287CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="760" windowWidth="28900" windowHeight="21580" tabRatio="500" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5660" yWindow="760" windowWidth="28900" windowHeight="21580" tabRatio="500" firstSheet="7" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="89">
   <si>
     <t>TeamName</t>
   </si>
@@ -315,6 +315,18 @@
   </si>
   <si>
     <t>r36</t>
+  </si>
+  <si>
+    <t>FB17469645ACDBDA2CD7C7EF27063C1DFA88C4CE0CFBECB231D49F4E4FBB6A33</t>
+  </si>
+  <si>
+    <t>92945CAA5FAE911EA7270912CDA3CBC3412FB4481318324EB7162B8D7BB86DF9</t>
+  </si>
+  <si>
+    <t>F901B7318DD925DA53168062BB795E6A306BCB2B26327BCF55987998A67DF384</t>
+  </si>
+  <si>
+    <t>0D7643BA695D83810B41A4AC279119FE67822A8DB6203B2C6DB7998B3E0DA1A6</t>
   </si>
 </sst>
 </file>
@@ -927,7 +939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1503,7 +1515,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P49" sqref="P49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <sheetData>
@@ -1514,12 +1528,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1537,8 +1551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -1550,12 +1564,12 @@
     </row>
     <row r="2" spans="1:1" ht="14">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
